--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Spectacled Petrel_Tristan da Cunha.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Spectacled Petrel_Tristan da Cunha.xlsx
@@ -4242,13 +4242,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9A3C49F-AF24-4A19-B5F9-19C606CA077F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5C81BD8-4730-4335-93F6-DC939852D070}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D332E7B8-AF06-4925-9CB3-6C72FFFE5C88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BFF97C-8468-40AA-A05A-F863B3E819CD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7C61C58-C402-4D0F-8B02-C080BB9D6F26}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ECB36FA-65B1-46EB-8ACD-80D0865077F6}"/>
 </file>